--- a/otmm_decimal/result_colab/result_novelty_1000_1.0_15_102_ColabPP/a_a_1000_1.0_15_15.xlsx
+++ b/otmm_decimal/result_colab/result_novelty_1000_1.0_15_102_ColabPP/a_a_1000_1.0_15_15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_novelty_1000_1.0_15_102_ColabPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA16503-41D5-4F76-A6B6-37267ED267D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E60B40-2FD4-46A1-AE2D-2DA33B5C562E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2457,7 +2457,7 @@
         <f t="shared" si="1"/>
         <v>3.4034795428829169E-89</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="2">
         <f t="shared" si="1"/>
         <v>0.1435190317186894</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="A32">
         <v>14</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <f t="shared" si="1"/>
         <v>0.10725688760857084</v>
       </c>
